--- a/graph.xlsx
+++ b/graph.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21310"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neuecc\Documents\neuecc\MessagePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\MessagePack-CSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C89E4D-52EA-4D61-B931-0C492B106DB4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="53925" windowHeight="28320"/>
+    <workbookView xWindow="48480" yWindow="-3600" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README graph" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,64 +25,132 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={675115CE-AC10-4A12-9B1A-05563BDC58F9}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{675115CE-AC10-4A12-9B1A-05563BDC58F9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Regenerate/refresh this data using the sandbox\PerfNetFramework program.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Small Object(int, string, stringm enum)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MessagePack C#</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>MsgPack-Cli</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>protobuf-net</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ZeroFormatter</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Serialize</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Deserialize</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>FileSize</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Large Array(Small Object[1000])</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protobuf-net</t>
+  </si>
+  <si>
+    <t>ZeroFormatter</t>
+  </si>
+  <si>
+    <t>MsgPack-Cli</t>
+  </si>
+  <si>
+    <t>FileSize::</t>
+  </si>
+  <si>
+    <t>Deserialize::</t>
+  </si>
+  <si>
+    <t>Serialize::</t>
+  </si>
+  <si>
+    <t>MessagePack for C#</t>
+  </si>
+  <si>
+    <t>MessagePack for C# (LZ4)</t>
+  </si>
+  <si>
+    <t>Json.NET</t>
+  </si>
+  <si>
+    <t>Json.NET(+GZip)</t>
+  </si>
+  <si>
+    <t>c405c58cbf (origin/master)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\ &quot;bytes&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,#00\ &quot;ms&quot;"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,18 +170,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EEED627A-A0C2-4276-9DBE-5120BEC3B1C1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +207,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -148,6 +226,605 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Person[100], 10K iterations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serialize</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'README graph'!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MessagePack for C#</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MessagePack for C# (LZ4)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MsgPack-Cli</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>protobuf-net</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ZeroFormatter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Json.NET</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Json.NET(+GZip)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'README graph'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00\ "ms"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>137.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>449.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1543.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1680.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F24E-46C8-97F4-2E2259F68447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Deserialize</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'README graph'!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00\ "ms"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>177.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1106.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>627.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1876.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2237.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F24E-46C8-97F4-2E2259F68447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="644809744"/>
+        <c:axId val="644811056"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'README graph'!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FileSize::</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'README graph'!$B$21:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0\ "bytes"</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F24E-46C8-97F4-2E2259F68447}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="448822072"/>
+        <c:axId val="448823384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="644809744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644811056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644811056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,#00\ &quot;ms&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644809744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="448823384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0\ &quot;bytes&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448822072"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="448822072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="448823384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -188,7 +865,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -200,7 +877,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -273,7 +950,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -285,7 +962,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -403,7 +1080,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -415,7 +1092,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -533,7 +1210,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -545,7 +1222,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -663,7 +1340,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -675,7 +1352,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -783,7 +1460,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -795,7 +1472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684191056"/>
@@ -844,7 +1521,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -856,7 +1533,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -886,7 +1563,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -897,10 +1574,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -918,7 +1595,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -957,7 +1634,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -969,7 +1646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1019,7 +1696,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1031,7 +1708,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1136,7 +1813,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1148,7 +1825,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1253,7 +1930,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1265,7 +1942,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1370,7 +2047,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1382,7 +2059,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1490,7 +2167,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1502,7 +2179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763540168"/>
@@ -1550,7 +2227,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1562,7 +2239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1592,7 +2269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1683,8 +2360,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1888,23 +2605,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2009,8 +2725,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2142,20 +2858,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2693,7 +3408,555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CD590D-F1DD-41DC-8CF1-24EF13F18E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2770,8 +4033,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Andrew Arnott" id="{741C964C-831C-49B3-8C72-00961BB146EB}" userId="S::andarno@microsoft.com::fef1612b-3282-4fb1-9982-6bb0b7d12ab8" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3065,22 +4334,252 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2019-01-27T03:35:00.29" personId="{741C964C-831C-49B3-8C72-00961BB146EB}" id="{675115CE-AC10-4A12-9B1A-05563BDC58F9}">
+    <text>Regenerate/refresh this data using the sandbox\PerfNetFramework program.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C478671A-2BFF-4005-AC60-F5FFFBF24A55}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>160.72999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>335.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>449.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>141.72999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1543.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1680.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>177.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>182.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1106.8699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>627.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>139.91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1876.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2237.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="H8:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="8" max="8" width="10.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="8:12">
       <c r="I8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="8:12">
       <c r="I9" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="8:12">
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +4610,7 @@
         <v>1.5387999999999999</v>
       </c>
     </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:12">
       <c r="H11" t="s">
         <v>6</v>
       </c>
@@ -3128,7 +4627,7 @@
         <v>1.3212999999999999</v>
       </c>
     </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:12">
       <c r="H12" t="s">
         <v>7</v>
       </c>
@@ -3145,12 +4644,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:12">
       <c r="I15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:12">
       <c r="I16" t="s">
         <v>1</v>
       </c>
@@ -3164,7 +4663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:12">
       <c r="H17" t="s">
         <v>5</v>
       </c>
@@ -3181,7 +4680,7 @@
         <v>118.71899999999999</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="8:12">
       <c r="H18" t="s">
         <v>6</v>
       </c>
@@ -3198,7 +4697,7 @@
         <v>165.98670000000001</v>
       </c>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:12">
       <c r="H19" t="s">
         <v>7</v>
       </c>
@@ -3216,8 +4715,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>